--- a/src/main/resources/excelTemp/fabricSummaryTemplate.xlsx
+++ b/src/main/resources/excelTemp/fabricSummaryTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
   <si>
     <t xml:space="preserve">杭州麦腾2023面料（里料）详单----MM/PM 
 </t>
@@ -36,184 +36,187 @@
     <t>面料实物贴样</t>
   </si>
   <si>
-    <t>{{styleColorPic0}}</t>
-  </si>
-  <si>
-    <t>{{styleColorPic1}}</t>
-  </si>
-  <si>
-    <t>{{styleColorPic2}}</t>
-  </si>
-  <si>
-    <t>{{styleColorPic3}}</t>
+    <t>{data0.stylePic}</t>
+  </si>
+  <si>
+    <t>{data1.stylePic}</t>
+  </si>
+  <si>
+    <t>{data2.stylePic}</t>
+  </si>
+  <si>
+    <t>{data3.stylePic}</t>
   </si>
   <si>
     <t>部位：</t>
   </si>
   <si>
-    <t>{{partName1}}</t>
+    <t>{data0.partName}</t>
   </si>
   <si>
     <t>波段：</t>
   </si>
   <si>
-    <t>{{bandName0}}</t>
-  </si>
-  <si>
-    <t>{{partName2}}</t>
-  </si>
-  <si>
-    <t>{{bandName1}}</t>
-  </si>
-  <si>
-    <t>{{partName3}}</t>
-  </si>
-  <si>
-    <t>{{bandName2}}</t>
-  </si>
-  <si>
-    <t>{{bandName3}}</t>
+    <t>{data0.bandName}</t>
+  </si>
+  <si>
+    <t>{{data1.partName}}</t>
+  </si>
+  <si>
+    <t>{data1.bandName}</t>
+  </si>
+  <si>
+    <t>{data2.partName}</t>
+  </si>
+  <si>
+    <t>{data2.bandName}</t>
+  </si>
+  <si>
+    <t>{data3.partName}</t>
+  </si>
+  <si>
+    <t>{data3.bandName}</t>
   </si>
   <si>
     <t>大货款号：</t>
   </si>
   <si>
-    <t>{{styleNo0}}</t>
-  </si>
-  <si>
-    <t>{{styleNo1}}</t>
-  </si>
-  <si>
-    <t>{{styleNo2}}</t>
-  </si>
-  <si>
-    <t>{{styleNo3}}</t>
+    <t>{data0.styleNo}</t>
+  </si>
+  <si>
+    <t>{data1.styleNo}</t>
+  </si>
+  <si>
+    <t>{data2.styleNo}</t>
+  </si>
+  <si>
+    <t>{data3.styleNo}</t>
   </si>
   <si>
     <t>设计款号</t>
   </si>
   <si>
-    <t>{{styleId0}}</t>
-  </si>
-  <si>
-    <t>{{styleId1}}</t>
-  </si>
-  <si>
-    <t>{{styleId2}}</t>
-  </si>
-  <si>
-    <t>{{styleId3}}</t>
+    <t>{data0.styleId}</t>
+  </si>
+  <si>
+    <t>{data1.styleId}</t>
+  </si>
+  <si>
+    <t>{data2.styleId}</t>
+  </si>
+  <si>
+    <t>{data3.styleId}</t>
   </si>
   <si>
     <t>版师：</t>
   </si>
   <si>
-    <t>{{senderDesignerName0}}</t>
+    <t>{data0.senderDesignerName}</t>
   </si>
   <si>
     <t>是否撞色</t>
   </si>
   <si>
-    <t>{{colorCrash0}}</t>
-  </si>
-  <si>
-    <t>{{senderDesignerName1}}</t>
-  </si>
-  <si>
-    <t>{{colorCrash1}}</t>
-  </si>
-  <si>
-    <t>{{senderDesignerName2}}</t>
-  </si>
-  <si>
-    <t>{{colorCrash2}}</t>
-  </si>
-  <si>
-    <t>{{senderDesignerName3}}</t>
-  </si>
-  <si>
-    <t>{{colorCrash3}}</t>
+    <t>{data0.colorCrash}</t>
+  </si>
+  <si>
+    <t>{data1.senderDesignerName}</t>
+  </si>
+  <si>
+    <t>{data1.colorCrash}</t>
+  </si>
+  <si>
+    <t>{data2.senderDesignerName}</t>
+  </si>
+  <si>
+    <t>{data2.colorCrash}</t>
+  </si>
+  <si>
+    <t>{data3.senderDesignerName}</t>
+  </si>
+  <si>
+    <t>{data3.colorCrash}</t>
   </si>
   <si>
     <t>投产颜色：</t>
   </si>
   <si>
-    <t>{{materialColor0}}</t>
+    <t>{data0.materialColor}</t>
   </si>
   <si>
     <t>单件用量（米）：</t>
   </si>
   <si>
-    <t>{{unitUse0}}</t>
+    <t>{data0.unitUse}</t>
   </si>
   <si>
     <t>米【非必填】</t>
   </si>
   <si>
-    <t>{{materialColor1}}</t>
-  </si>
-  <si>
-    <t>{{unitUse1}}</t>
-  </si>
-  <si>
-    <t>{{materialColor2}}</t>
-  </si>
-  <si>
-    <t>{{unitUse2}}</t>
-  </si>
-  <si>
-    <t>{{materialColor3}}</t>
-  </si>
-  <si>
-    <t>{{unitUse3}}</t>
+    <t>{data1.materialColor}</t>
+  </si>
+  <si>
+    <t>{data1.unitUse}</t>
+  </si>
+  <si>
+    <t>{data2.materialColor}</t>
+  </si>
+  <si>
+    <t>{data2.unitUse}</t>
+  </si>
+  <si>
+    <t>{data3.materialColor}</t>
+  </si>
+  <si>
+    <t>{data3.unitUse}</t>
   </si>
   <si>
     <t>物料颜色</t>
   </si>
   <si>
-    <t>{{supplierColor0}}</t>
+    <t>{data0.supplierColor}</t>
   </si>
   <si>
     <t>投产件数：</t>
   </si>
   <si>
-    <t>{{totalProduction0}}</t>
-  </si>
-  <si>
-    <t>{{supplierColor1}}</t>
-  </si>
-  <si>
-    <t>{{totalProduction1}}</t>
-  </si>
-  <si>
-    <t>{{supplierColor2}}</t>
-  </si>
-  <si>
-    <t>{{totalProduction2}}</t>
-  </si>
-  <si>
-    <t>{{supplierColor3}}</t>
-  </si>
-  <si>
-    <t>{{totalProduction3}}</t>
+    <t>{data0.totalProduction}</t>
+  </si>
+  <si>
+    <t>{data1.supplierColor}</t>
+  </si>
+  <si>
+    <t>{data1.totalProduction}</t>
+  </si>
+  <si>
+    <t>{data2.supplierColor}</t>
+  </si>
+  <si>
+    <t>{data2.totalProduction}</t>
+  </si>
+  <si>
+    <t>{data3.supplierColor}</t>
+  </si>
+  <si>
+    <t>{totalProduction}</t>
   </si>
   <si>
     <t>供应商色号</t>
   </si>
   <si>
-    <t>{{supplierColorNo0}}</t>
+    <t>{data0.supplierColorNo}</t>
   </si>
   <si>
     <t>需求米数：</t>
   </si>
   <si>
-    <t>{{supplierColorNo1}}</t>
-  </si>
-  <si>
-    <t>{{supplierColorNo2}}</t>
-  </si>
-  <si>
-    <t>{{supplierColorNo3}}</t>
+    <t>{data1.supplierColorNo}</t>
+  </si>
+  <si>
+    <t>{data2.supplierColorNo}</t>
+  </si>
+  <si>
+    <t>{data3.supplierColorNo}</t>
   </si>
   <si>
     <t>备注</t>
@@ -225,61 +228,61 @@
     <t>面料检测</t>
   </si>
   <si>
-    <t>{{physicochemistryDetectionResult}}</t>
+    <t>{physicochemistryDetectionResult}</t>
   </si>
   <si>
     <t>试穿报告</t>
   </si>
   <si>
-    <t>{{fittingResult}}</t>
+    <t>{fittingResult}</t>
   </si>
   <si>
     <t>询价编号</t>
   </si>
   <si>
-    <t>{{enquiryCode}}</t>
+    <t>{enquiryCode}</t>
   </si>
   <si>
     <t>是否环保</t>
   </si>
   <si>
-    <t>{{isProtection}}</t>
+    <t>{isProtection}</t>
   </si>
   <si>
     <t>材料（公司编号）</t>
   </si>
   <si>
-    <t>{{materialCode}}</t>
+    <t>{materialCode}</t>
   </si>
   <si>
     <t>年份尾缀</t>
   </si>
   <si>
-    <t>{{yearSuffix}}</t>
+    <t>{yearSuffix}</t>
   </si>
   <si>
     <t>供应商简称</t>
   </si>
   <si>
-    <t>{{supplierName}}</t>
+    <t>{supplierName}</t>
   </si>
   <si>
     <t>供应商物料号</t>
   </si>
   <si>
-    <t>{{supplierFabricCode}}</t>
+    <t>{supplierFabricCode}</t>
   </si>
   <si>
     <t>材料成份</t>
   </si>
   <si>
-    <t>{{supplierFactoryIngredient}}</t>
+    <t>{supplierFactoryIngredient}</t>
   </si>
   <si>
     <t>有效门幅（cm)</t>
   </si>
   <si>
-    <t>{{widthName}}</t>
+    <t>{widthName}</t>
   </si>
   <si>
     <t>面料克重(g)</t>
@@ -288,31 +291,31 @@
     <t>纱织规格</t>
   </si>
   <si>
-    <t>{{specification}}</t>
+    <t>{specification}</t>
   </si>
   <si>
     <t>密度</t>
   </si>
   <si>
-    <t>{{density}}</t>
+    <t>{density}</t>
   </si>
   <si>
     <t>起订量</t>
   </si>
   <si>
-    <t>{{minimumOrderQuantity}}</t>
+    <t>{minimumOrderQuantity}</t>
   </si>
   <si>
     <t>货期</t>
   </si>
   <si>
-    <t>{{productionDay}}</t>
+    <t>{productionDay}</t>
   </si>
   <si>
     <t>含税价格</t>
   </si>
   <si>
-    <t>{{supplierQuotationPrice}}</t>
+    <t>{supplierQuotationPrice}</t>
   </si>
   <si>
     <r>
@@ -362,10 +365,10 @@
     </r>
   </si>
   <si>
-    <t>{{createName}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  设计师：  </t>
+    <t>{createName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 设计师：  </t>
   </si>
   <si>
     <t xml:space="preserve">  设计组长 ：       </t>
@@ -2064,8 +2067,8 @@
   <sheetPr/>
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2185,14 +2188,14 @@
         <v>6</v>
       </c>
       <c r="U3" s="73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V3" s="74"/>
       <c r="W3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="26" spans="1:24">
@@ -2201,37 +2204,37 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U4" s="85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V4" s="85"/>
       <c r="W4" s="85"/>
@@ -2243,37 +2246,37 @@
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="75"/>
       <c r="M5" s="75"/>
       <c r="N5" s="75"/>
       <c r="O5" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="75"/>
       <c r="R5" s="75"/>
       <c r="S5" s="75"/>
       <c r="T5" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U5" s="86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V5" s="86"/>
       <c r="W5" s="86"/>
@@ -2285,122 +2288,122 @@
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="22"/>
       <c r="R6" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V6" s="22"/>
       <c r="W6" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X6" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" ht="39" spans="1:24">
+    <row r="7" ht="36" spans="1:24">
       <c r="A7" s="15"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="K7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="20" t="s">
+      <c r="M7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>39</v>
-      </c>
       <c r="O7" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R7" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T7" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U7" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V7" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W7" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X7" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:24">
@@ -2409,64 +2412,64 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="26" t="s">
+      <c r="K8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>48</v>
-      </c>
       <c r="M8" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T8" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U8" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V8" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W8" s="27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X8" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="36" spans="1:24">
@@ -2475,59 +2478,59 @@
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="27" t="e">
         <f>H7*H8</f>
         <v>#VALUE!</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>58</v>
       </c>
       <c r="M9" s="27"/>
       <c r="N9" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R9" s="27"/>
       <c r="S9" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V9" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W9" s="27"/>
       <c r="X9" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -2536,28 +2539,28 @@
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="76"/>
       <c r="J10" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
       <c r="N10" s="76"/>
       <c r="O10" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
       <c r="S10" s="76"/>
       <c r="T10" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U10" s="32"/>
       <c r="V10" s="32"/>
@@ -2566,7 +2569,7 @@
     </row>
     <row r="11" ht="16.5" spans="1:24">
       <c r="A11" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -2594,16 +2597,16 @@
     </row>
     <row r="12" ht="65" spans="1:24">
       <c r="A12" s="38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
@@ -2628,16 +2631,16 @@
     </row>
     <row r="13" ht="26" spans="1:24">
       <c r="A13" s="42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="37"/>
@@ -2662,16 +2665,16 @@
     </row>
     <row r="14" ht="29" spans="1:24">
       <c r="A14" s="45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="37"/>
@@ -2696,16 +2699,16 @@
     </row>
     <row r="15" ht="39" spans="1:24">
       <c r="A15" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="37"/>
@@ -2730,10 +2733,10 @@
     </row>
     <row r="16" ht="14.5" spans="1:24">
       <c r="A16" s="45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
@@ -2760,16 +2763,16 @@
     </row>
     <row r="17" ht="29" spans="1:24">
       <c r="A17" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>84</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>83</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="37"/>
@@ -2794,16 +2797,16 @@
     </row>
     <row r="18" ht="14.5" spans="1:24">
       <c r="A18" s="45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="37"/>
@@ -2828,16 +2831,16 @@
     </row>
     <row r="19" ht="14.5" spans="1:24">
       <c r="A19" s="45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="37"/>
@@ -2862,10 +2865,10 @@
     </row>
     <row r="20" ht="14.5" spans="1:24">
       <c r="A20" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="59"/>
@@ -2890,35 +2893,35 @@
       <c r="W20" s="61"/>
       <c r="X20" s="78"/>
     </row>
-    <row r="21" ht="24" spans="1:24">
+    <row r="21" ht="15" spans="1:24">
       <c r="A21" s="62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="14"/>
       <c r="G21" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H21" s="66"/>
       <c r="I21" s="14"/>
       <c r="J21" s="79"/>
       <c r="K21" s="80"/>
       <c r="L21" s="80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M21" s="80"/>
       <c r="N21" s="81"/>
       <c r="O21" s="82"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R21" s="80"/>
       <c r="S21" s="81"/>
@@ -2930,7 +2933,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>

--- a/src/main/resources/excelTemp/fabricSummaryTemplate.xlsx
+++ b/src/main/resources/excelTemp/fabricSummaryTemplate.xlsx
@@ -36,16 +36,16 @@
     <t>面料实物贴样</t>
   </si>
   <si>
-    <t>{data0.stylePic}</t>
-  </si>
-  <si>
-    <t>{data1.stylePic}</t>
-  </si>
-  <si>
-    <t>{data2.stylePic}</t>
-  </si>
-  <si>
-    <t>{data3.stylePic}</t>
+    <t>{img0.stylePic}</t>
+  </si>
+  <si>
+    <t>{img1.stylePic}</t>
+  </si>
+  <si>
+    <t>{img2.stylePic}</t>
+  </si>
+  <si>
+    <t>{img3.stylePic}</t>
   </si>
   <si>
     <t>部位：</t>
@@ -2068,7 +2068,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:N20"/>
+      <selection activeCell="T2" sqref="T2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>

--- a/src/main/resources/excelTemp/fabricSummaryTemplate.xlsx
+++ b/src/main/resources/excelTemp/fabricSummaryTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="10480"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1490,7 +1490,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1521,7 +1521,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2067,8 +2067,8 @@
   <sheetPr/>
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:X2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>

--- a/src/main/resources/excelTemp/fabricSummaryTemplate.xlsx
+++ b/src/main/resources/excelTemp/fabricSummaryTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
   <si>
     <t xml:space="preserve">杭州麦腾2023面料（里料）详单----MM/PM 
 </t>
@@ -210,7 +210,13 @@
     <t>需求米数：</t>
   </si>
   <si>
+    <t>{data0.needMeter}</t>
+  </si>
+  <si>
     <t>{data1.supplierColorNo}</t>
+  </si>
+  <si>
+    <t>{data1.needMeter}</t>
   </si>
   <si>
     <t>{data2.supplierColorNo}</t>
@@ -2068,7 +2074,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="T10" sqref="T10:X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2486,9 +2492,8 @@
       <c r="G9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="27" t="e">
-        <f>H7*H8</f>
-        <v>#VALUE!</v>
+      <c r="H9" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>40</v>
@@ -2497,12 +2502,14 @@
         <v>57</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>62</v>
+      </c>
       <c r="N9" s="27" t="s">
         <v>40</v>
       </c>
@@ -2510,12 +2517,14 @@
         <v>57</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="27"/>
+      <c r="R9" s="27" t="s">
+        <v>62</v>
+      </c>
       <c r="S9" s="27" t="s">
         <v>40</v>
       </c>
@@ -2523,12 +2532,14 @@
         <v>57</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="W9" s="27"/>
+      <c r="W9" s="27" t="s">
+        <v>62</v>
+      </c>
       <c r="X9" s="27" t="s">
         <v>40</v>
       </c>
@@ -2539,28 +2550,28 @@
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="76"/>
       <c r="J10" s="31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
       <c r="N10" s="76"/>
       <c r="O10" s="31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
       <c r="S10" s="76"/>
       <c r="T10" s="31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U10" s="32"/>
       <c r="V10" s="32"/>
@@ -2569,7 +2580,7 @@
     </row>
     <row r="11" ht="16.5" spans="1:24">
       <c r="A11" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -2597,16 +2608,16 @@
     </row>
     <row r="12" ht="65" spans="1:24">
       <c r="A12" s="38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
@@ -2631,16 +2642,16 @@
     </row>
     <row r="13" ht="26" spans="1:24">
       <c r="A13" s="42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="37"/>
@@ -2665,16 +2676,16 @@
     </row>
     <row r="14" ht="29" spans="1:24">
       <c r="A14" s="45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="37"/>
@@ -2699,16 +2710,16 @@
     </row>
     <row r="15" ht="39" spans="1:24">
       <c r="A15" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="37"/>
@@ -2733,10 +2744,10 @@
     </row>
     <row r="16" ht="14.5" spans="1:24">
       <c r="A16" s="45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
@@ -2763,16 +2774,16 @@
     </row>
     <row r="17" ht="29" spans="1:24">
       <c r="A17" s="45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="37"/>
@@ -2797,16 +2808,16 @@
     </row>
     <row r="18" ht="14.5" spans="1:24">
       <c r="A18" s="45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="37"/>
@@ -2831,16 +2842,16 @@
     </row>
     <row r="19" ht="14.5" spans="1:24">
       <c r="A19" s="45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="37"/>
@@ -2865,10 +2876,10 @@
     </row>
     <row r="20" ht="14.5" spans="1:24">
       <c r="A20" s="45" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="59"/>
@@ -2895,33 +2906,33 @@
     </row>
     <row r="21" ht="15" spans="1:24">
       <c r="A21" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="65" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="14"/>
       <c r="G21" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H21" s="66"/>
       <c r="I21" s="14"/>
       <c r="J21" s="79"/>
       <c r="K21" s="80"/>
       <c r="L21" s="80" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M21" s="80"/>
       <c r="N21" s="81"/>
       <c r="O21" s="82"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="79" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R21" s="80"/>
       <c r="S21" s="81"/>
@@ -2933,7 +2944,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="67" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
